--- a/speeds.xlsx
+++ b/speeds.xlsx
@@ -1130,121 +1130,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005A2CF5E03776FB4CA4D8F2F29EB72716" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bad77ac4b82044f3b635101689c1eea7">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="251e853c-a07c-46be-ac50-1383ac7c1319" xmlns:ns3="0cd162e5-fe1f-4258-bffe-161e9e8887ce" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0bd441e47fad24ecc33d208533eaa054" ns2:_="" ns3:_="">
-    <xsd:import namespace="251e853c-a07c-46be-ac50-1383ac7c1319"/>
-    <xsd:import namespace="0cd162e5-fe1f-4258-bffe-161e9e8887ce"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AF8D3A767F23174AA64CDC50A3932DDD" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="729298bc09248f6952bca55d104f2ebb">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="31d5eec3c12ee2e8127422d567928fa7">
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element name="documentManagement">
             <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-              </xsd:all>
+              <xsd:all/>
             </xsd:complexType>
           </xsd:element>
         </xsd:sequence>
       </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="251e853c-a07c-46be-ac50-1383ac7c1319" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="11" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="9f491e78-420f-4edb-9831-7a9dfb4c094c" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="12" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="16" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="19" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="20" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="0cd162e5-fe1f-4258-bffe-161e9e8887ce" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -1348,11 +1245,7 @@
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="251e853c-a07c-46be-ac50-1383ac7c1319">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
+  <documentManagement/>
 </p:properties>
 </file>
 
@@ -1366,7 +1259,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50C7E477-2D97-45EB-8DE8-CDFB35127E5D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E0967D9-0D57-489B-8839-F0E0A2CCC21B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
